--- a/OHRM Assignment_Data.xlsx
+++ b/OHRM Assignment_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankush\Desktop\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -96,13 +96,41 @@
   </si>
   <si>
     <t>Not Run</t>
+  </si>
+  <si>
+    <t>0376</t>
+  </si>
+  <si>
+    <t>0377</t>
+  </si>
+  <si>
+    <t>0383</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>0384</t>
+  </si>
+  <si>
+    <t>0385</t>
+  </si>
+  <si>
+    <t>0386</t>
+  </si>
+  <si>
+    <t>0388</t>
+  </si>
+  <si>
+    <t>0389</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +145,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,10 +180,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -433,47 +475,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
     </row>
@@ -481,64 +523,64 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+      <c r="I2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
+      <c r="I3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="4">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
